--- a/www.eia.gov/electricity/monthly/xls/table_2_11_b.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_2_11_b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
   <si>
     <t>Table 2.11.B. Consumption of Nautral Gas for Electricity Generation by State, by Sector,</t>
   </si>
   <si>
-    <t>Year-to-Date through October 2016 and October 2015 (Million Cubic Feet)</t>
+    <t>Year-to-Date through November 2016 and November 2015 (Million Cubic Feet)</t>
   </si>
   <si>
     <t/>
@@ -55,10 +55,10 @@
     <t>Industrial Sector</t>
   </si>
   <si>
-    <t>October 2016 YTD</t>
-  </si>
-  <si>
-    <t>October 2015 YTD</t>
+    <t>November 2016 YTD</t>
+  </si>
+  <si>
+    <t>November 2015 YTD</t>
   </si>
   <si>
     <t>Percentage Change</t>
@@ -1356,37 +1356,37 @@
         <v>13</v>
       </c>
       <c r="B6" s="13">
-        <v>348282</v>
+        <v>374422</v>
       </c>
       <c r="C6" s="13">
-        <v>345894</v>
+        <v>375426</v>
       </c>
       <c r="D6" s="14">
-        <v>7.0000000000000001E-3</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E6" s="13">
-        <v>2878</v>
+        <v>2910</v>
       </c>
       <c r="F6" s="13">
-        <v>3876</v>
+        <v>4140</v>
       </c>
       <c r="G6" s="13">
-        <v>330338</v>
+        <v>355130</v>
       </c>
       <c r="H6" s="13">
-        <v>327207</v>
+        <v>355014</v>
       </c>
       <c r="I6" s="13">
-        <v>7608</v>
+        <v>8302</v>
       </c>
       <c r="J6" s="13">
-        <v>7939</v>
+        <v>8673</v>
       </c>
       <c r="K6" s="13">
-        <v>7458</v>
+        <v>8081</v>
       </c>
       <c r="L6" s="13">
-        <v>6873</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1394,37 +1394,37 @@
         <v>14</v>
       </c>
       <c r="B7" s="16">
-        <v>109979</v>
+        <v>120378</v>
       </c>
       <c r="C7" s="16">
-        <v>105762</v>
+        <v>116307</v>
       </c>
       <c r="D7" s="17">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E7" s="16">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F7" s="16">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="G7" s="16">
-        <v>102603</v>
+        <v>112331</v>
       </c>
       <c r="H7" s="16">
-        <v>98233</v>
+        <v>107970</v>
       </c>
       <c r="I7" s="16">
-        <v>3265</v>
+        <v>3553</v>
       </c>
       <c r="J7" s="16">
-        <v>3212</v>
+        <v>3539</v>
       </c>
       <c r="K7" s="16">
-        <v>4082</v>
+        <v>4453</v>
       </c>
       <c r="L7" s="16">
-        <v>4190</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1432,13 +1432,13 @@
         <v>15</v>
       </c>
       <c r="B8" s="16">
-        <v>22838</v>
+        <v>24141</v>
       </c>
       <c r="C8" s="16">
-        <v>16558</v>
+        <v>18614</v>
       </c>
       <c r="D8" s="17">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="E8" s="16">
         <v>0</v>
@@ -1447,22 +1447,22 @@
         <v>0</v>
       </c>
       <c r="G8" s="16">
-        <v>20416</v>
+        <v>21538</v>
       </c>
       <c r="H8" s="16">
-        <v>14650</v>
+        <v>16461</v>
       </c>
       <c r="I8" s="16">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="J8" s="16">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="K8" s="16">
-        <v>2168</v>
+        <v>2321</v>
       </c>
       <c r="L8" s="16">
-        <v>1618</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1470,37 +1470,37 @@
         <v>16</v>
       </c>
       <c r="B9" s="16">
-        <v>144838</v>
+        <v>153214</v>
       </c>
       <c r="C9" s="16">
-        <v>143934</v>
+        <v>152717</v>
       </c>
       <c r="D9" s="17">
-        <v>6.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="E9" s="16">
-        <v>2387</v>
+        <v>2405</v>
       </c>
       <c r="F9" s="16">
-        <v>3457</v>
+        <v>3623</v>
       </c>
       <c r="G9" s="16">
-        <v>137974</v>
+        <v>145925</v>
       </c>
       <c r="H9" s="16">
-        <v>135782</v>
+        <v>143997</v>
       </c>
       <c r="I9" s="16">
-        <v>3380</v>
+        <v>3700</v>
       </c>
       <c r="J9" s="16">
-        <v>3750</v>
+        <v>4062</v>
       </c>
       <c r="K9" s="16">
-        <v>1097</v>
+        <v>1184</v>
       </c>
       <c r="L9" s="16">
-        <v>946</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1508,10 +1508,10 @@
         <v>17</v>
       </c>
       <c r="B10" s="16">
-        <v>28871</v>
+        <v>31979</v>
       </c>
       <c r="C10" s="16">
-        <v>36506</v>
+        <v>40335</v>
       </c>
       <c r="D10" s="17">
         <v>-0.21</v>
@@ -1520,25 +1520,25 @@
         <v>451</v>
       </c>
       <c r="F10" s="16">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="G10" s="16">
-        <v>28112</v>
+        <v>31190</v>
       </c>
       <c r="H10" s="16">
-        <v>35897</v>
+        <v>39660</v>
       </c>
       <c r="I10" s="16" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="16">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="16">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1546,13 +1546,13 @@
         <v>19</v>
       </c>
       <c r="B11" s="16">
-        <v>41744</v>
+        <v>44696</v>
       </c>
       <c r="C11" s="16">
-        <v>43116</v>
+        <v>47433</v>
       </c>
       <c r="D11" s="17">
-        <v>-3.2000000000000001E-2</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
       <c r="E11" s="16">
         <v>0</v>
@@ -1561,16 +1561,16 @@
         <v>0</v>
       </c>
       <c r="G11" s="16">
-        <v>41233</v>
+        <v>44145</v>
       </c>
       <c r="H11" s="16">
-        <v>42644</v>
+        <v>46926</v>
       </c>
       <c r="I11" s="16">
-        <v>511</v>
+        <v>550</v>
       </c>
       <c r="J11" s="16">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="K11" s="16">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>18</v>
       </c>
       <c r="C12" s="16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G12" s="16">
         <v>0</v>
@@ -1622,37 +1622,37 @@
         <v>21</v>
       </c>
       <c r="B13" s="13">
-        <v>1113241</v>
+        <v>1200455</v>
       </c>
       <c r="C13" s="13">
-        <v>1002026</v>
+        <v>1093502</v>
       </c>
       <c r="D13" s="14">
-        <v>0.11</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="E13" s="13">
-        <v>104241</v>
+        <v>110811</v>
       </c>
       <c r="F13" s="13">
-        <v>98966</v>
+        <v>107110</v>
       </c>
       <c r="G13" s="13">
-        <v>990083</v>
+        <v>1068919</v>
       </c>
       <c r="H13" s="13">
-        <v>884494</v>
+        <v>966024</v>
       </c>
       <c r="I13" s="13">
-        <v>8967</v>
+        <v>9791</v>
       </c>
       <c r="J13" s="13">
-        <v>8867</v>
+        <v>9733</v>
       </c>
       <c r="K13" s="13">
-        <v>9949</v>
+        <v>10934</v>
       </c>
       <c r="L13" s="13">
-        <v>9699</v>
+        <v>10636</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1660,37 +1660,37 @@
         <v>22</v>
       </c>
       <c r="B14" s="16">
-        <v>278830</v>
+        <v>298266</v>
       </c>
       <c r="C14" s="16">
-        <v>230744</v>
+        <v>253996</v>
       </c>
       <c r="D14" s="17">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="16">
-        <v>586</v>
+        <v>664</v>
       </c>
       <c r="G14" s="16">
-        <v>274098</v>
+        <v>293118</v>
       </c>
       <c r="H14" s="16">
-        <v>226006</v>
+        <v>248757</v>
       </c>
       <c r="I14" s="16">
-        <v>1458</v>
+        <v>1588</v>
       </c>
       <c r="J14" s="16">
-        <v>1514</v>
+        <v>1671</v>
       </c>
       <c r="K14" s="16">
-        <v>2575</v>
+        <v>2814</v>
       </c>
       <c r="L14" s="16">
-        <v>2638</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1698,37 +1698,37 @@
         <v>23</v>
       </c>
       <c r="B15" s="16">
-        <v>410891</v>
+        <v>439595</v>
       </c>
       <c r="C15" s="16">
-        <v>404869</v>
+        <v>436952</v>
       </c>
       <c r="D15" s="17">
-        <v>1.4999999999999999E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="E15" s="16">
-        <v>103465</v>
+        <v>109985</v>
       </c>
       <c r="F15" s="16">
-        <v>98352</v>
+        <v>106415</v>
       </c>
       <c r="G15" s="16">
-        <v>299003</v>
+        <v>320387</v>
       </c>
       <c r="H15" s="16">
-        <v>298561</v>
+        <v>321834</v>
       </c>
       <c r="I15" s="16">
-        <v>6498</v>
+        <v>7101</v>
       </c>
       <c r="J15" s="16">
-        <v>6266</v>
+        <v>6872</v>
       </c>
       <c r="K15" s="16">
-        <v>1925</v>
+        <v>2122</v>
       </c>
       <c r="L15" s="16">
-        <v>1689</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1736,37 +1736,37 @@
         <v>24</v>
       </c>
       <c r="B16" s="16">
-        <v>423520</v>
+        <v>462594</v>
       </c>
       <c r="C16" s="16">
-        <v>366413</v>
+        <v>402553</v>
       </c>
       <c r="D16" s="17">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="16">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G16" s="16">
-        <v>416983</v>
+        <v>455414</v>
       </c>
       <c r="H16" s="16">
-        <v>359927</v>
+        <v>395433</v>
       </c>
       <c r="I16" s="16">
-        <v>1012</v>
+        <v>1102</v>
       </c>
       <c r="J16" s="16">
-        <v>1087</v>
+        <v>1190</v>
       </c>
       <c r="K16" s="16">
-        <v>5448</v>
+        <v>5998</v>
       </c>
       <c r="L16" s="16">
-        <v>5372</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1774,37 +1774,37 @@
         <v>25</v>
       </c>
       <c r="B17" s="13">
-        <v>758743</v>
+        <v>819866</v>
       </c>
       <c r="C17" s="13">
-        <v>563568</v>
+        <v>619586</v>
       </c>
       <c r="D17" s="14">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="E17" s="13">
-        <v>340200</v>
+        <v>364938</v>
       </c>
       <c r="F17" s="13">
-        <v>249612</v>
+        <v>275804</v>
       </c>
       <c r="G17" s="13">
-        <v>393501</v>
+        <v>427565</v>
       </c>
       <c r="H17" s="13">
-        <v>291371</v>
+        <v>318689</v>
       </c>
       <c r="I17" s="13">
-        <v>8817</v>
+        <v>9505</v>
       </c>
       <c r="J17" s="13">
-        <v>8532</v>
+        <v>9424</v>
       </c>
       <c r="K17" s="13">
-        <v>16224</v>
+        <v>17858</v>
       </c>
       <c r="L17" s="13">
-        <v>14053</v>
+        <v>15669</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1812,37 +1812,37 @@
         <v>26</v>
       </c>
       <c r="B18" s="16">
-        <v>132877</v>
+        <v>141370</v>
       </c>
       <c r="C18" s="16">
-        <v>71349</v>
+        <v>78899</v>
       </c>
       <c r="D18" s="17">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="E18" s="16">
-        <v>13222</v>
+        <v>13684</v>
       </c>
       <c r="F18" s="16">
-        <v>4713</v>
+        <v>4964</v>
       </c>
       <c r="G18" s="16">
-        <v>114096</v>
+        <v>121718</v>
       </c>
       <c r="H18" s="16">
-        <v>60577</v>
+        <v>67212</v>
       </c>
       <c r="I18" s="16">
-        <v>2720</v>
+        <v>2863</v>
       </c>
       <c r="J18" s="16">
-        <v>3371</v>
+        <v>3696</v>
       </c>
       <c r="K18" s="16">
-        <v>2839</v>
+        <v>3105</v>
       </c>
       <c r="L18" s="16">
-        <v>2688</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1850,37 +1850,37 @@
         <v>27</v>
       </c>
       <c r="B19" s="16">
-        <v>131190</v>
+        <v>144932</v>
       </c>
       <c r="C19" s="16">
-        <v>100015</v>
+        <v>111646</v>
       </c>
       <c r="D19" s="17">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="E19" s="16">
-        <v>102978</v>
+        <v>113967</v>
       </c>
       <c r="F19" s="16">
-        <v>78449</v>
+        <v>86745</v>
       </c>
       <c r="G19" s="16">
-        <v>23949</v>
+        <v>26294</v>
       </c>
       <c r="H19" s="16">
-        <v>17376</v>
+        <v>20210</v>
       </c>
       <c r="I19" s="16">
-        <v>970</v>
+        <v>1056</v>
       </c>
       <c r="J19" s="16">
-        <v>814</v>
+        <v>907</v>
       </c>
       <c r="K19" s="16">
-        <v>3292</v>
+        <v>3614</v>
       </c>
       <c r="L19" s="16">
-        <v>3377</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1888,37 +1888,37 @@
         <v>28</v>
       </c>
       <c r="B20" s="16">
-        <v>208728</v>
+        <v>225494</v>
       </c>
       <c r="C20" s="16">
-        <v>134799</v>
+        <v>148326</v>
       </c>
       <c r="D20" s="17">
-        <v>0.55000000000000004</v>
+        <v>0.52</v>
       </c>
       <c r="E20" s="16">
-        <v>80039</v>
+        <v>84480</v>
       </c>
       <c r="F20" s="16">
-        <v>44454</v>
+        <v>49722</v>
       </c>
       <c r="G20" s="16">
-        <v>117159</v>
+        <v>128350</v>
       </c>
       <c r="H20" s="16">
-        <v>81104</v>
+        <v>88391</v>
       </c>
       <c r="I20" s="16">
-        <v>3370</v>
+        <v>3692</v>
       </c>
       <c r="J20" s="16">
-        <v>2871</v>
+        <v>3172</v>
       </c>
       <c r="K20" s="16">
-        <v>8160</v>
+        <v>8973</v>
       </c>
       <c r="L20" s="16">
-        <v>6370</v>
+        <v>7041</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1926,37 +1926,37 @@
         <v>29</v>
       </c>
       <c r="B21" s="16">
-        <v>180475</v>
+        <v>196055</v>
       </c>
       <c r="C21" s="16">
-        <v>175424</v>
+        <v>191246</v>
       </c>
       <c r="D21" s="17">
-        <v>2.9000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E21" s="16">
-        <v>48903</v>
+        <v>51861</v>
       </c>
       <c r="F21" s="16">
-        <v>46413</v>
+        <v>51754</v>
       </c>
       <c r="G21" s="16">
-        <v>130063</v>
+        <v>142526</v>
       </c>
       <c r="H21" s="16">
-        <v>127375</v>
+        <v>137652</v>
       </c>
       <c r="I21" s="16">
-        <v>1160</v>
+        <v>1246</v>
       </c>
       <c r="J21" s="16">
-        <v>1023</v>
+        <v>1155</v>
       </c>
       <c r="K21" s="16">
-        <v>349</v>
+        <v>422</v>
       </c>
       <c r="L21" s="16">
-        <v>613</v>
+        <v>686</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1964,37 +1964,37 @@
         <v>30</v>
       </c>
       <c r="B22" s="16">
-        <v>105473</v>
+        <v>112016</v>
       </c>
       <c r="C22" s="16">
-        <v>81981</v>
+        <v>89468</v>
       </c>
       <c r="D22" s="17">
-        <v>0.28999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="E22" s="16">
-        <v>95058</v>
+        <v>100945</v>
       </c>
       <c r="F22" s="16">
-        <v>75583</v>
+        <v>82618</v>
       </c>
       <c r="G22" s="16">
-        <v>8234</v>
+        <v>8677</v>
       </c>
       <c r="H22" s="16">
-        <v>4940</v>
+        <v>5225</v>
       </c>
       <c r="I22" s="16">
-        <v>597</v>
+        <v>648</v>
       </c>
       <c r="J22" s="16">
-        <v>453</v>
+        <v>494</v>
       </c>
       <c r="K22" s="16">
-        <v>1585</v>
+        <v>1745</v>
       </c>
       <c r="L22" s="16">
-        <v>1005</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2002,37 +2002,37 @@
         <v>31</v>
       </c>
       <c r="B23" s="13">
-        <v>166650</v>
+        <v>176339</v>
       </c>
       <c r="C23" s="13">
-        <v>123359</v>
+        <v>130773</v>
       </c>
       <c r="D23" s="14">
         <v>0.35</v>
       </c>
       <c r="E23" s="13">
-        <v>137171</v>
+        <v>145414</v>
       </c>
       <c r="F23" s="13">
-        <v>103750</v>
+        <v>109927</v>
       </c>
       <c r="G23" s="13">
-        <v>22122</v>
+        <v>22715</v>
       </c>
       <c r="H23" s="13">
-        <v>14317</v>
+        <v>14991</v>
       </c>
       <c r="I23" s="13">
-        <v>3142</v>
+        <v>3426</v>
       </c>
       <c r="J23" s="13">
-        <v>2542</v>
+        <v>2768</v>
       </c>
       <c r="K23" s="13">
-        <v>4214</v>
+        <v>4784</v>
       </c>
       <c r="L23" s="13">
-        <v>2750</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2040,19 +2040,19 @@
         <v>32</v>
       </c>
       <c r="B24" s="16">
-        <v>21685</v>
+        <v>22737</v>
       </c>
       <c r="C24" s="16">
-        <v>16161</v>
+        <v>16854</v>
       </c>
       <c r="D24" s="17">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="E24" s="16">
-        <v>18929</v>
+        <v>19504</v>
       </c>
       <c r="F24" s="16">
-        <v>14199</v>
+        <v>14633</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>18</v>
@@ -2061,16 +2061,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I24" s="16">
-        <v>571</v>
+        <v>621</v>
       </c>
       <c r="J24" s="16">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="K24" s="16">
-        <v>2183</v>
+        <v>2610</v>
       </c>
       <c r="L24" s="16">
-        <v>1506</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2078,19 +2078,19 @@
         <v>33</v>
       </c>
       <c r="B25" s="16">
-        <v>18828</v>
+        <v>20142</v>
       </c>
       <c r="C25" s="16">
-        <v>13824</v>
+        <v>14512</v>
       </c>
       <c r="D25" s="17">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="E25" s="16">
-        <v>18193</v>
+        <v>19452</v>
       </c>
       <c r="F25" s="16">
-        <v>13312</v>
+        <v>13976</v>
       </c>
       <c r="G25" s="16">
         <v>0</v>
@@ -2105,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="K25" s="16">
-        <v>635</v>
+        <v>690</v>
       </c>
       <c r="L25" s="16">
-        <v>512</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2116,37 +2116,37 @@
         <v>34</v>
       </c>
       <c r="B26" s="16">
-        <v>60868</v>
+        <v>64289</v>
       </c>
       <c r="C26" s="16">
-        <v>45262</v>
+        <v>48395</v>
       </c>
       <c r="D26" s="17">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="E26" s="16">
-        <v>47742</v>
+        <v>50603</v>
       </c>
       <c r="F26" s="16">
-        <v>37887</v>
+        <v>40676</v>
       </c>
       <c r="G26" s="16">
-        <v>10621</v>
+        <v>10969</v>
       </c>
       <c r="H26" s="16">
-        <v>5628</v>
+        <v>5756</v>
       </c>
       <c r="I26" s="16">
-        <v>1580</v>
+        <v>1733</v>
       </c>
       <c r="J26" s="16">
-        <v>1265</v>
+        <v>1436</v>
       </c>
       <c r="K26" s="16">
-        <v>924</v>
+        <v>984</v>
       </c>
       <c r="L26" s="16">
-        <v>482</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2154,37 +2154,37 @@
         <v>35</v>
       </c>
       <c r="B27" s="16">
-        <v>45106</v>
+        <v>47272</v>
       </c>
       <c r="C27" s="16">
-        <v>32928</v>
+        <v>35106</v>
       </c>
       <c r="D27" s="17">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="E27" s="16">
-        <v>32372</v>
+        <v>34196</v>
       </c>
       <c r="F27" s="16">
-        <v>23259</v>
+        <v>24835</v>
       </c>
       <c r="G27" s="16">
-        <v>11498</v>
+        <v>11744</v>
       </c>
       <c r="H27" s="16">
-        <v>8689</v>
+        <v>9235</v>
       </c>
       <c r="I27" s="16">
-        <v>985</v>
+        <v>1065</v>
       </c>
       <c r="J27" s="16">
-        <v>818</v>
+        <v>838</v>
       </c>
       <c r="K27" s="16">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="L27" s="16">
-        <v>161</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2192,19 +2192,19 @@
         <v>36</v>
       </c>
       <c r="B28" s="16">
-        <v>5607</v>
+        <v>6284</v>
       </c>
       <c r="C28" s="16">
-        <v>3983</v>
+        <v>4137</v>
       </c>
       <c r="D28" s="17">
-        <v>0.41</v>
+        <v>0.52</v>
       </c>
       <c r="E28" s="16">
-        <v>5482</v>
+        <v>6156</v>
       </c>
       <c r="F28" s="16">
-        <v>3977</v>
+        <v>4126</v>
       </c>
       <c r="G28" s="16">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>18</v>
       </c>
       <c r="L28" s="16">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2230,19 +2230,19 @@
         <v>37</v>
       </c>
       <c r="B29" s="16">
-        <v>7773</v>
+        <v>8321</v>
       </c>
       <c r="C29" s="16">
-        <v>6159</v>
+        <v>6263</v>
       </c>
       <c r="D29" s="17">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="E29" s="16">
-        <v>7670</v>
+        <v>8207</v>
       </c>
       <c r="F29" s="16">
-        <v>6072</v>
+        <v>6174</v>
       </c>
       <c r="G29" s="16">
         <v>0</v>
@@ -2257,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="K29" s="16">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="L29" s="16">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2268,19 +2268,19 @@
         <v>38</v>
       </c>
       <c r="B30" s="16">
-        <v>6783</v>
+        <v>7295</v>
       </c>
       <c r="C30" s="16">
-        <v>5043</v>
+        <v>5506</v>
       </c>
       <c r="D30" s="17">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="E30" s="16">
-        <v>6783</v>
+        <v>7295</v>
       </c>
       <c r="F30" s="16">
-        <v>5043</v>
+        <v>5506</v>
       </c>
       <c r="G30" s="16">
         <v>0</v>
@@ -2306,37 +2306,37 @@
         <v>39</v>
       </c>
       <c r="B31" s="13">
-        <v>2096121</v>
+        <v>2262274</v>
       </c>
       <c r="C31" s="13">
-        <v>1926769</v>
+        <v>2106878</v>
       </c>
       <c r="D31" s="14">
-        <v>8.7999999999999995E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E31" s="13">
-        <v>1671107</v>
+        <v>1809637</v>
       </c>
       <c r="F31" s="13">
-        <v>1568997</v>
+        <v>1713466</v>
       </c>
       <c r="G31" s="13">
-        <v>394087</v>
+        <v>418449</v>
       </c>
       <c r="H31" s="13">
-        <v>327632</v>
+        <v>360437</v>
       </c>
       <c r="I31" s="13">
-        <v>6155</v>
+        <v>6704</v>
       </c>
       <c r="J31" s="13">
-        <v>6425</v>
+        <v>7046</v>
       </c>
       <c r="K31" s="13">
-        <v>24772</v>
+        <v>27484</v>
       </c>
       <c r="L31" s="13">
-        <v>23715</v>
+        <v>25930</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2344,25 +2344,25 @@
         <v>40</v>
       </c>
       <c r="B32" s="16">
-        <v>58136</v>
+        <v>62754</v>
       </c>
       <c r="C32" s="16">
-        <v>50728</v>
+        <v>53823</v>
       </c>
       <c r="D32" s="17">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F32" s="16">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="G32" s="16">
-        <v>47657</v>
+        <v>51208</v>
       </c>
       <c r="H32" s="16">
-        <v>40541</v>
+        <v>42839</v>
       </c>
       <c r="I32" s="16">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="16">
-        <v>10037</v>
+        <v>11078</v>
       </c>
       <c r="L32" s="16">
-        <v>9861</v>
+        <v>10639</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2382,13 +2382,13 @@
         <v>41</v>
       </c>
       <c r="B33" s="16">
-        <v>513</v>
+        <v>559</v>
       </c>
       <c r="C33" s="16">
-        <v>547</v>
+        <v>597</v>
       </c>
       <c r="D33" s="17">
-        <v>-6.2E-2</v>
+        <v>-6.3E-2</v>
       </c>
       <c r="E33" s="16">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="I33" s="16">
-        <v>513</v>
+        <v>559</v>
       </c>
       <c r="J33" s="16">
-        <v>547</v>
+        <v>597</v>
       </c>
       <c r="K33" s="16">
         <v>0</v>
@@ -2420,37 +2420,37 @@
         <v>42</v>
       </c>
       <c r="B34" s="16">
-        <v>1033229</v>
+        <v>1110507</v>
       </c>
       <c r="C34" s="16">
-        <v>981582</v>
+        <v>1073668</v>
       </c>
       <c r="D34" s="17">
-        <v>5.2999999999999999E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="E34" s="16">
-        <v>936586</v>
+        <v>1007722</v>
       </c>
       <c r="F34" s="16">
-        <v>918447</v>
+        <v>1001237</v>
       </c>
       <c r="G34" s="16">
-        <v>88980</v>
+        <v>94346</v>
       </c>
       <c r="H34" s="16">
-        <v>55552</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>18</v>
+        <v>64089</v>
+      </c>
+      <c r="I34" s="16">
+        <v>254</v>
       </c>
       <c r="J34" s="16">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="K34" s="16">
-        <v>7428</v>
+        <v>8185</v>
       </c>
       <c r="L34" s="16">
-        <v>7408</v>
+        <v>8150</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2458,25 +2458,25 @@
         <v>43</v>
       </c>
       <c r="B35" s="16">
-        <v>331447</v>
+        <v>355715</v>
       </c>
       <c r="C35" s="16">
-        <v>303253</v>
+        <v>331078</v>
       </c>
       <c r="D35" s="17">
-        <v>9.2999999999999999E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="E35" s="16">
-        <v>252581</v>
+        <v>273073</v>
       </c>
       <c r="F35" s="16">
-        <v>220867</v>
+        <v>241183</v>
       </c>
       <c r="G35" s="16">
-        <v>76087</v>
+        <v>79545</v>
       </c>
       <c r="H35" s="16">
-        <v>79388</v>
+        <v>86588</v>
       </c>
       <c r="I35" s="16">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="16">
-        <v>2780</v>
+        <v>3097</v>
       </c>
       <c r="L35" s="16">
-        <v>2999</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2496,13 +2496,13 @@
         <v>44</v>
       </c>
       <c r="B36" s="16">
-        <v>51635</v>
+        <v>52609</v>
       </c>
       <c r="C36" s="16">
-        <v>38288</v>
+        <v>41870</v>
       </c>
       <c r="D36" s="17">
-        <v>0.35</v>
+        <v>0.26</v>
       </c>
       <c r="E36" s="16">
         <v>0</v>
@@ -2511,22 +2511,22 @@
         <v>0</v>
       </c>
       <c r="G36" s="16">
-        <v>45974</v>
+        <v>46445</v>
       </c>
       <c r="H36" s="16">
-        <v>32451</v>
+        <v>35467</v>
       </c>
       <c r="I36" s="16">
-        <v>5253</v>
+        <v>5721</v>
       </c>
       <c r="J36" s="16">
-        <v>5587</v>
+        <v>6129</v>
       </c>
       <c r="K36" s="16">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="L36" s="16">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2534,37 +2534,37 @@
         <v>45</v>
       </c>
       <c r="B37" s="16">
-        <v>249032</v>
+        <v>272920</v>
       </c>
       <c r="C37" s="16">
-        <v>225447</v>
+        <v>247784</v>
       </c>
       <c r="D37" s="17">
         <v>0.1</v>
       </c>
       <c r="E37" s="16">
-        <v>213550</v>
+        <v>235736</v>
       </c>
       <c r="F37" s="16">
-        <v>198293</v>
+        <v>219329</v>
       </c>
       <c r="G37" s="16">
-        <v>34602</v>
+        <v>36225</v>
       </c>
       <c r="H37" s="16">
-        <v>26367</v>
+        <v>27584</v>
       </c>
       <c r="I37" s="16">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J37" s="16">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K37" s="16">
-        <v>821</v>
+        <v>892</v>
       </c>
       <c r="L37" s="16">
-        <v>747</v>
+        <v>824</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2572,37 +2572,37 @@
         <v>46</v>
       </c>
       <c r="B38" s="16">
-        <v>111112</v>
+        <v>124596</v>
       </c>
       <c r="C38" s="16">
-        <v>109983</v>
+        <v>123687</v>
       </c>
       <c r="D38" s="17">
-        <v>0.01</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E38" s="16">
-        <v>90751</v>
+        <v>99629</v>
       </c>
       <c r="F38" s="16">
-        <v>96833</v>
+        <v>108963</v>
       </c>
       <c r="G38" s="16">
-        <v>19902</v>
+        <v>24468</v>
       </c>
       <c r="H38" s="16">
-        <v>12934</v>
+        <v>14492</v>
       </c>
       <c r="I38" s="16" t="s">
         <v>18</v>
       </c>
       <c r="J38" s="16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K38" s="16">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="L38" s="16">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2610,37 +2610,37 @@
         <v>47</v>
       </c>
       <c r="B39" s="16">
-        <v>250521</v>
+        <v>271515</v>
       </c>
       <c r="C39" s="16">
-        <v>204984</v>
+        <v>221660</v>
       </c>
       <c r="D39" s="17">
         <v>0.22</v>
       </c>
       <c r="E39" s="16">
-        <v>175822</v>
+        <v>191528</v>
       </c>
       <c r="F39" s="16">
-        <v>132949</v>
+        <v>141087</v>
       </c>
       <c r="G39" s="16">
-        <v>72581</v>
+        <v>77650</v>
       </c>
       <c r="H39" s="16">
-        <v>69726</v>
+        <v>77988</v>
       </c>
       <c r="I39" s="16" t="s">
         <v>18</v>
       </c>
       <c r="J39" s="16">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K39" s="16">
-        <v>2059</v>
+        <v>2273</v>
       </c>
       <c r="L39" s="16">
-        <v>2251</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2648,25 +2648,25 @@
         <v>48</v>
       </c>
       <c r="B40" s="16">
-        <v>10495</v>
+        <v>11098</v>
       </c>
       <c r="C40" s="16">
-        <v>11956</v>
+        <v>12710</v>
       </c>
       <c r="D40" s="17">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="E40" s="16">
-        <v>1375</v>
+        <v>1480</v>
       </c>
       <c r="F40" s="16">
-        <v>1283</v>
+        <v>1320</v>
       </c>
       <c r="G40" s="16">
-        <v>8304</v>
+        <v>8563</v>
       </c>
       <c r="H40" s="16">
-        <v>10673</v>
+        <v>11390</v>
       </c>
       <c r="I40" s="16">
         <v>0</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="16">
-        <v>816</v>
+        <v>1055</v>
       </c>
       <c r="L40" s="16">
         <v>7.0000000000000007E-2</v>
@@ -2686,37 +2686,37 @@
         <v>49</v>
       </c>
       <c r="B41" s="13">
-        <v>815287</v>
+        <v>876049</v>
       </c>
       <c r="C41" s="13">
-        <v>724294</v>
+        <v>793155</v>
       </c>
       <c r="D41" s="14">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="E41" s="13">
-        <v>537162</v>
+        <v>575591</v>
       </c>
       <c r="F41" s="13">
-        <v>447447</v>
+        <v>492004</v>
       </c>
       <c r="G41" s="13">
-        <v>265914</v>
+        <v>287057</v>
       </c>
       <c r="H41" s="13">
-        <v>263897</v>
+        <v>286987</v>
       </c>
       <c r="I41" s="13">
-        <v>1093</v>
+        <v>1190</v>
       </c>
       <c r="J41" s="13">
-        <v>1044</v>
+        <v>1141</v>
       </c>
       <c r="K41" s="13">
-        <v>11118</v>
+        <v>12211</v>
       </c>
       <c r="L41" s="13">
-        <v>11906</v>
+        <v>13024</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2724,25 +2724,25 @@
         <v>50</v>
       </c>
       <c r="B42" s="16">
-        <v>357864</v>
+        <v>388758</v>
       </c>
       <c r="C42" s="16">
-        <v>338504</v>
+        <v>370369</v>
       </c>
       <c r="D42" s="17">
-        <v>5.7000000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E42" s="16">
-        <v>111660</v>
+        <v>121048</v>
       </c>
       <c r="F42" s="16">
-        <v>92001</v>
+        <v>102519</v>
       </c>
       <c r="G42" s="16">
-        <v>239939</v>
+        <v>260895</v>
       </c>
       <c r="H42" s="16">
-        <v>238917</v>
+        <v>259626</v>
       </c>
       <c r="I42" s="16">
         <v>0</v>
@@ -2751,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="K42" s="16">
-        <v>6264</v>
+        <v>6814</v>
       </c>
       <c r="L42" s="16">
-        <v>7585</v>
+        <v>8223</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2762,22 +2762,22 @@
         <v>51</v>
       </c>
       <c r="B43" s="16">
-        <v>58698</v>
+        <v>63062</v>
       </c>
       <c r="C43" s="16">
-        <v>44537</v>
+        <v>50026</v>
       </c>
       <c r="D43" s="17">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="E43" s="16">
-        <v>52234</v>
+        <v>56286</v>
       </c>
       <c r="F43" s="16">
-        <v>37146</v>
+        <v>42455</v>
       </c>
       <c r="G43" s="16">
-        <v>5068</v>
+        <v>5250</v>
       </c>
       <c r="H43" s="16">
         <v>5935</v>
@@ -2789,10 +2789,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="16">
-        <v>1396</v>
+        <v>1526</v>
       </c>
       <c r="L43" s="16">
-        <v>1455</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2800,37 +2800,37 @@
         <v>52</v>
       </c>
       <c r="B44" s="16">
-        <v>320340</v>
+        <v>341855</v>
       </c>
       <c r="C44" s="16">
-        <v>281332</v>
+        <v>307199</v>
       </c>
       <c r="D44" s="17">
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="E44" s="16">
-        <v>297401</v>
+        <v>318708</v>
       </c>
       <c r="F44" s="16">
-        <v>260345</v>
+        <v>283633</v>
       </c>
       <c r="G44" s="16">
-        <v>20907</v>
+        <v>20911</v>
       </c>
       <c r="H44" s="16">
-        <v>19044</v>
+        <v>21425</v>
       </c>
       <c r="I44" s="16" t="s">
         <v>18</v>
       </c>
       <c r="J44" s="16">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K44" s="16">
-        <v>1991</v>
+        <v>2191</v>
       </c>
       <c r="L44" s="16">
-        <v>1914</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2838,19 +2838,19 @@
         <v>53</v>
       </c>
       <c r="B45" s="16">
-        <v>78385</v>
+        <v>82374</v>
       </c>
       <c r="C45" s="16">
-        <v>59922</v>
+        <v>65562</v>
       </c>
       <c r="D45" s="17">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="E45" s="16">
-        <v>75866</v>
+        <v>79548</v>
       </c>
       <c r="F45" s="16">
-        <v>57954</v>
+        <v>63396</v>
       </c>
       <c r="G45" s="16">
         <v>0</v>
@@ -2859,16 +2859,16 @@
         <v>0</v>
       </c>
       <c r="I45" s="16">
-        <v>1053</v>
+        <v>1145</v>
       </c>
       <c r="J45" s="16">
-        <v>1016</v>
+        <v>1110</v>
       </c>
       <c r="K45" s="16">
-        <v>1467</v>
+        <v>1680</v>
       </c>
       <c r="L45" s="16">
-        <v>952</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2876,37 +2876,37 @@
         <v>54</v>
       </c>
       <c r="B46" s="13">
-        <v>2271037</v>
+        <v>2448536</v>
       </c>
       <c r="C46" s="13">
-        <v>2235934</v>
+        <v>2425476</v>
       </c>
       <c r="D46" s="14">
-        <v>1.6E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E46" s="13">
-        <v>787203</v>
+        <v>842521</v>
       </c>
       <c r="F46" s="13">
-        <v>733349</v>
+        <v>793073</v>
       </c>
       <c r="G46" s="13">
-        <v>1081834</v>
+        <v>1162943</v>
       </c>
       <c r="H46" s="13">
-        <v>1116682</v>
+        <v>1207403</v>
       </c>
       <c r="I46" s="13">
-        <v>6534</v>
+        <v>7139</v>
       </c>
       <c r="J46" s="13">
-        <v>6272</v>
+        <v>6694</v>
       </c>
       <c r="K46" s="13">
-        <v>395466</v>
+        <v>435933</v>
       </c>
       <c r="L46" s="13">
-        <v>379631</v>
+        <v>418306</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2914,37 +2914,37 @@
         <v>55</v>
       </c>
       <c r="B47" s="16">
-        <v>114680</v>
+        <v>125148</v>
       </c>
       <c r="C47" s="16">
-        <v>93705</v>
+        <v>98744</v>
       </c>
       <c r="D47" s="17">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="E47" s="16">
-        <v>49334</v>
+        <v>53844</v>
       </c>
       <c r="F47" s="16">
-        <v>30087</v>
+        <v>31858</v>
       </c>
       <c r="G47" s="16">
-        <v>63948</v>
+        <v>69762</v>
       </c>
       <c r="H47" s="16">
-        <v>61987</v>
+        <v>65084</v>
       </c>
       <c r="I47" s="16" t="s">
         <v>18</v>
       </c>
       <c r="J47" s="16">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K47" s="16">
-        <v>1379</v>
+        <v>1521</v>
       </c>
       <c r="L47" s="16">
-        <v>1610</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2952,37 +2952,37 @@
         <v>56</v>
       </c>
       <c r="B48" s="16">
-        <v>458515</v>
+        <v>495094</v>
       </c>
       <c r="C48" s="16">
-        <v>437089</v>
+        <v>483147</v>
       </c>
       <c r="D48" s="17">
-        <v>4.9000000000000002E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E48" s="16">
-        <v>248208</v>
+        <v>265020</v>
       </c>
       <c r="F48" s="16">
-        <v>255151</v>
+        <v>280371</v>
       </c>
       <c r="G48" s="16">
-        <v>38143</v>
+        <v>40507</v>
       </c>
       <c r="H48" s="16">
-        <v>20816</v>
+        <v>24264</v>
       </c>
       <c r="I48" s="16">
-        <v>1391</v>
+        <v>1523</v>
       </c>
       <c r="J48" s="16">
-        <v>1377</v>
+        <v>1525</v>
       </c>
       <c r="K48" s="16">
-        <v>170772</v>
+        <v>188044</v>
       </c>
       <c r="L48" s="16">
-        <v>159745</v>
+        <v>176987</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2990,37 +2990,37 @@
         <v>57</v>
       </c>
       <c r="B49" s="16">
-        <v>237958</v>
+        <v>258929</v>
       </c>
       <c r="C49" s="16">
-        <v>211674</v>
+        <v>232261</v>
       </c>
       <c r="D49" s="17">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="E49" s="16">
-        <v>166743</v>
+        <v>180818</v>
       </c>
       <c r="F49" s="16">
-        <v>139200</v>
+        <v>153155</v>
       </c>
       <c r="G49" s="16">
-        <v>70304</v>
+        <v>77112</v>
       </c>
       <c r="H49" s="16">
-        <v>71681</v>
+        <v>78188</v>
       </c>
       <c r="I49" s="16">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J49" s="16">
         <v>0.08</v>
       </c>
       <c r="K49" s="16">
-        <v>830</v>
+        <v>911</v>
       </c>
       <c r="L49" s="16">
-        <v>793</v>
+        <v>917</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3028,37 +3028,37 @@
         <v>58</v>
       </c>
       <c r="B50" s="16">
-        <v>1459884</v>
+        <v>1569365</v>
       </c>
       <c r="C50" s="16">
-        <v>1493465</v>
+        <v>1611324</v>
       </c>
       <c r="D50" s="17">
-        <v>-2.1999999999999999E-2</v>
+        <v>-2.5999999999999999E-2</v>
       </c>
       <c r="E50" s="16">
-        <v>322918</v>
+        <v>342838</v>
       </c>
       <c r="F50" s="16">
-        <v>308911</v>
+        <v>327688</v>
       </c>
       <c r="G50" s="16">
-        <v>909439</v>
+        <v>975563</v>
       </c>
       <c r="H50" s="16">
-        <v>962198</v>
+        <v>1039866</v>
       </c>
       <c r="I50" s="16">
-        <v>5042</v>
+        <v>5506</v>
       </c>
       <c r="J50" s="16">
-        <v>4873</v>
+        <v>5146</v>
       </c>
       <c r="K50" s="16">
-        <v>222485</v>
+        <v>245458</v>
       </c>
       <c r="L50" s="16">
-        <v>217483</v>
+        <v>238623</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3066,37 +3066,37 @@
         <v>59</v>
       </c>
       <c r="B51" s="13">
-        <v>650236</v>
+        <v>693374</v>
       </c>
       <c r="C51" s="13">
-        <v>609088</v>
+        <v>666041</v>
       </c>
       <c r="D51" s="14">
-        <v>6.8000000000000005E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="E51" s="13">
-        <v>480789</v>
+        <v>514098</v>
       </c>
       <c r="F51" s="13">
-        <v>436264</v>
+        <v>478284</v>
       </c>
       <c r="G51" s="13">
-        <v>156769</v>
+        <v>165321</v>
       </c>
       <c r="H51" s="13">
-        <v>159893</v>
+        <v>173504</v>
       </c>
       <c r="I51" s="13">
-        <v>3333</v>
+        <v>3675</v>
       </c>
       <c r="J51" s="13">
-        <v>3812</v>
+        <v>4177</v>
       </c>
       <c r="K51" s="13">
-        <v>9344</v>
+        <v>10279</v>
       </c>
       <c r="L51" s="13">
-        <v>9120</v>
+        <v>10076</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3104,31 +3104,31 @@
         <v>60</v>
       </c>
       <c r="B52" s="16">
-        <v>234260</v>
+        <v>245729</v>
       </c>
       <c r="C52" s="16">
-        <v>214456</v>
+        <v>232206</v>
       </c>
       <c r="D52" s="17">
-        <v>9.1999999999999998E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="E52" s="16">
-        <v>136097</v>
+        <v>142986</v>
       </c>
       <c r="F52" s="16">
-        <v>117395</v>
+        <v>127928</v>
       </c>
       <c r="G52" s="16">
-        <v>97164</v>
+        <v>101643</v>
       </c>
       <c r="H52" s="16">
-        <v>95794</v>
+        <v>102908</v>
       </c>
       <c r="I52" s="16">
-        <v>999</v>
+        <v>1100</v>
       </c>
       <c r="J52" s="16">
-        <v>1267</v>
+        <v>1370</v>
       </c>
       <c r="K52" s="16">
         <v>0</v>
@@ -3142,37 +3142,37 @@
         <v>61</v>
       </c>
       <c r="B53" s="16">
-        <v>80385</v>
+        <v>85840</v>
       </c>
       <c r="C53" s="16">
-        <v>71878</v>
+        <v>81460</v>
       </c>
       <c r="D53" s="17">
-        <v>0.12</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="E53" s="16">
-        <v>66732</v>
+        <v>71240</v>
       </c>
       <c r="F53" s="16">
-        <v>55217</v>
+        <v>63436</v>
       </c>
       <c r="G53" s="16">
-        <v>13429</v>
+        <v>14359</v>
       </c>
       <c r="H53" s="16">
-        <v>16464</v>
+        <v>17796</v>
       </c>
       <c r="I53" s="16">
         <v>14</v>
       </c>
       <c r="J53" s="16">
-        <v>0.32</v>
+        <v>3</v>
       </c>
       <c r="K53" s="16">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="L53" s="16">
-        <v>197</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -3180,37 +3180,37 @@
         <v>62</v>
       </c>
       <c r="B54" s="16">
-        <v>21644</v>
+        <v>22514</v>
       </c>
       <c r="C54" s="16">
-        <v>22784</v>
+        <v>25086</v>
       </c>
       <c r="D54" s="17">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="E54" s="16">
-        <v>13011</v>
+        <v>13280</v>
       </c>
       <c r="F54" s="16">
-        <v>13806</v>
+        <v>14829</v>
       </c>
       <c r="G54" s="16">
-        <v>7949</v>
+        <v>8479</v>
       </c>
       <c r="H54" s="16">
-        <v>8486</v>
+        <v>9669</v>
       </c>
       <c r="I54" s="16">
         <v>0</v>
       </c>
       <c r="J54" s="16">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="K54" s="16">
-        <v>684</v>
+        <v>756</v>
       </c>
       <c r="L54" s="16">
-        <v>389</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3218,25 +3218,25 @@
         <v>63</v>
       </c>
       <c r="B55" s="16">
-        <v>6505</v>
+        <v>6904</v>
       </c>
       <c r="C55" s="16">
-        <v>5178</v>
+        <v>5769</v>
       </c>
       <c r="D55" s="17">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="E55" s="16">
-        <v>5877</v>
+        <v>6238</v>
       </c>
       <c r="F55" s="16">
-        <v>4702</v>
+        <v>5240</v>
       </c>
       <c r="G55" s="16">
-        <v>628</v>
+        <v>665</v>
       </c>
       <c r="H55" s="16">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="I55" s="16">
         <v>0</v>
@@ -3256,37 +3256,37 @@
         <v>64</v>
       </c>
       <c r="B56" s="16">
-        <v>177608</v>
+        <v>193282</v>
       </c>
       <c r="C56" s="16">
-        <v>175909</v>
+        <v>191359</v>
       </c>
       <c r="D56" s="17">
         <v>0.01</v>
       </c>
       <c r="E56" s="16">
-        <v>162021</v>
+        <v>176062</v>
       </c>
       <c r="F56" s="16">
-        <v>159650</v>
+        <v>173471</v>
       </c>
       <c r="G56" s="16">
-        <v>12926</v>
+        <v>14294</v>
       </c>
       <c r="H56" s="16">
-        <v>13471</v>
+        <v>14850</v>
       </c>
       <c r="I56" s="16">
-        <v>567</v>
+        <v>627</v>
       </c>
       <c r="J56" s="16">
-        <v>592</v>
+        <v>645</v>
       </c>
       <c r="K56" s="16">
-        <v>2094</v>
+        <v>2299</v>
       </c>
       <c r="L56" s="16">
-        <v>2197</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -3294,37 +3294,37 @@
         <v>65</v>
       </c>
       <c r="B57" s="16">
-        <v>70667</v>
+        <v>75836</v>
       </c>
       <c r="C57" s="16">
-        <v>64574</v>
+        <v>70093</v>
       </c>
       <c r="D57" s="17">
-        <v>9.4E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E57" s="16">
-        <v>46428</v>
+        <v>50389</v>
       </c>
       <c r="F57" s="16">
-        <v>39722</v>
+        <v>42638</v>
       </c>
       <c r="G57" s="16">
-        <v>23185</v>
+        <v>24286</v>
       </c>
       <c r="H57" s="16">
-        <v>23709</v>
+        <v>26206</v>
       </c>
       <c r="I57" s="16">
-        <v>1035</v>
+        <v>1143</v>
       </c>
       <c r="J57" s="16">
-        <v>1134</v>
+        <v>1237</v>
       </c>
       <c r="K57" s="16" t="s">
         <v>18</v>
       </c>
       <c r="L57" s="16">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -3332,37 +3332,37 @@
         <v>66</v>
       </c>
       <c r="B58" s="16">
-        <v>54579</v>
+        <v>58278</v>
       </c>
       <c r="C58" s="16">
-        <v>50337</v>
+        <v>55629</v>
       </c>
       <c r="D58" s="17">
-        <v>8.4000000000000005E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E58" s="16">
-        <v>48976</v>
+        <v>52180</v>
       </c>
       <c r="F58" s="16">
-        <v>44770</v>
+        <v>49589</v>
       </c>
       <c r="G58" s="16">
-        <v>1478</v>
+        <v>1586</v>
       </c>
       <c r="H58" s="16">
-        <v>1485</v>
+        <v>1538</v>
       </c>
       <c r="I58" s="16">
-        <v>717</v>
+        <v>790</v>
       </c>
       <c r="J58" s="16">
-        <v>718</v>
+        <v>794</v>
       </c>
       <c r="K58" s="16">
-        <v>3407</v>
+        <v>3722</v>
       </c>
       <c r="L58" s="16">
-        <v>3365</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3370,19 +3370,19 @@
         <v>67</v>
       </c>
       <c r="B59" s="16">
-        <v>4587</v>
+        <v>4992</v>
       </c>
       <c r="C59" s="16">
-        <v>3972</v>
+        <v>4438</v>
       </c>
       <c r="D59" s="17">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="E59" s="16">
-        <v>1646</v>
+        <v>1724</v>
       </c>
       <c r="F59" s="16">
-        <v>1003</v>
+        <v>1153</v>
       </c>
       <c r="G59" s="16" t="s">
         <v>18</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="K59" s="16">
-        <v>2932</v>
+        <v>3258</v>
       </c>
       <c r="L59" s="16">
-        <v>2962</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3408,37 +3408,37 @@
         <v>68</v>
       </c>
       <c r="B60" s="13">
-        <v>759370</v>
+        <v>826019</v>
       </c>
       <c r="C60" s="13">
-        <v>885237</v>
+        <v>970096</v>
       </c>
       <c r="D60" s="14">
-        <v>-0.14000000000000001</v>
+        <v>-0.15</v>
       </c>
       <c r="E60" s="13">
-        <v>290721</v>
+        <v>316178</v>
       </c>
       <c r="F60" s="13">
-        <v>318054</v>
+        <v>350518</v>
       </c>
       <c r="G60" s="13">
-        <v>402098</v>
+        <v>436617</v>
       </c>
       <c r="H60" s="13">
-        <v>497443</v>
+        <v>542513</v>
       </c>
       <c r="I60" s="13">
-        <v>12159</v>
+        <v>13409</v>
       </c>
       <c r="J60" s="13">
-        <v>13441</v>
+        <v>14688</v>
       </c>
       <c r="K60" s="13">
-        <v>54392</v>
+        <v>59816</v>
       </c>
       <c r="L60" s="13">
-        <v>56299</v>
+        <v>62377</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3446,37 +3446,37 @@
         <v>69</v>
       </c>
       <c r="B61" s="16">
-        <v>595649</v>
+        <v>650079</v>
       </c>
       <c r="C61" s="16">
-        <v>719707</v>
+        <v>783088</v>
       </c>
       <c r="D61" s="17">
         <v>-0.17</v>
       </c>
       <c r="E61" s="16">
-        <v>207012</v>
+        <v>224924</v>
       </c>
       <c r="F61" s="16">
-        <v>234235</v>
+        <v>256047</v>
       </c>
       <c r="G61" s="16">
-        <v>323798</v>
+        <v>353785</v>
       </c>
       <c r="H61" s="16">
-        <v>416758</v>
+        <v>451150</v>
       </c>
       <c r="I61" s="16">
-        <v>11562</v>
+        <v>12751</v>
       </c>
       <c r="J61" s="16">
-        <v>12925</v>
+        <v>14105</v>
       </c>
       <c r="K61" s="16">
-        <v>53277</v>
+        <v>58618</v>
       </c>
       <c r="L61" s="16">
-        <v>55789</v>
+        <v>61786</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3484,37 +3484,37 @@
         <v>70</v>
       </c>
       <c r="B62" s="16">
-        <v>92598</v>
+        <v>100318</v>
       </c>
       <c r="C62" s="16">
-        <v>89997</v>
+        <v>101071</v>
       </c>
       <c r="D62" s="17">
-        <v>2.9000000000000001E-2</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="E62" s="16">
-        <v>41617</v>
+        <v>45897</v>
       </c>
       <c r="F62" s="16">
-        <v>36940</v>
+        <v>41367</v>
       </c>
       <c r="G62" s="16">
-        <v>49790</v>
+        <v>53142</v>
       </c>
       <c r="H62" s="16">
-        <v>52321</v>
+        <v>58869</v>
       </c>
       <c r="I62" s="16" t="s">
         <v>18</v>
       </c>
       <c r="J62" s="16">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="K62" s="16">
-        <v>674</v>
+        <v>708</v>
       </c>
       <c r="L62" s="16">
-        <v>283</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3522,37 +3522,37 @@
         <v>71</v>
       </c>
       <c r="B63" s="16">
-        <v>71123</v>
+        <v>75623</v>
       </c>
       <c r="C63" s="16">
-        <v>75532</v>
+        <v>85937</v>
       </c>
       <c r="D63" s="17">
-        <v>-5.8000000000000003E-2</v>
+        <v>-0.12</v>
       </c>
       <c r="E63" s="16">
-        <v>42092</v>
+        <v>45356</v>
       </c>
       <c r="F63" s="16">
-        <v>46879</v>
+        <v>53104</v>
       </c>
       <c r="G63" s="16">
-        <v>28510</v>
+        <v>29690</v>
       </c>
       <c r="H63" s="16">
-        <v>28363</v>
+        <v>32493</v>
       </c>
       <c r="I63" s="16">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J63" s="16">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K63" s="16">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="L63" s="16">
-        <v>227</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -3560,19 +3560,19 @@
         <v>72</v>
       </c>
       <c r="B64" s="13">
-        <v>19663</v>
+        <v>21508</v>
       </c>
       <c r="C64" s="13">
-        <v>25851</v>
+        <v>28422</v>
       </c>
       <c r="D64" s="14">
         <v>-0.24</v>
       </c>
       <c r="E64" s="13">
-        <v>18811</v>
+        <v>20575</v>
       </c>
       <c r="F64" s="13">
-        <v>25073</v>
+        <v>27571</v>
       </c>
       <c r="G64" s="13">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>18</v>
       </c>
       <c r="L64" s="13">
-        <v>777</v>
+        <v>851</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3598,19 +3598,19 @@
         <v>73</v>
       </c>
       <c r="B65" s="16">
-        <v>19663</v>
+        <v>21508</v>
       </c>
       <c r="C65" s="16">
-        <v>25851</v>
+        <v>28422</v>
       </c>
       <c r="D65" s="17">
         <v>-0.24</v>
       </c>
       <c r="E65" s="16">
-        <v>18811</v>
+        <v>20575</v>
       </c>
       <c r="F65" s="16">
-        <v>25073</v>
+        <v>27571</v>
       </c>
       <c r="G65" s="16">
         <v>0</v>
@@ -3628,7 +3628,7 @@
         <v>18</v>
       </c>
       <c r="L65" s="16">
-        <v>777</v>
+        <v>851</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3674,37 +3674,37 @@
         <v>76</v>
       </c>
       <c r="B67" s="13">
-        <v>8998629</v>
+        <v>9698844</v>
       </c>
       <c r="C67" s="13">
-        <v>8442020</v>
+        <v>9209356</v>
       </c>
       <c r="D67" s="14">
-        <v>6.6000000000000003E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="E67" s="13">
-        <v>4370283</v>
+        <v>4702672</v>
       </c>
       <c r="F67" s="13">
-        <v>3985387</v>
+        <v>4351897</v>
       </c>
       <c r="G67" s="13">
-        <v>4036746</v>
+        <v>4344715</v>
       </c>
       <c r="H67" s="13">
-        <v>3882936</v>
+        <v>4225560</v>
       </c>
       <c r="I67" s="13">
-        <v>57824</v>
+        <v>63156</v>
       </c>
       <c r="J67" s="13">
-        <v>58874</v>
+        <v>64344</v>
       </c>
       <c r="K67" s="13">
-        <v>533775</v>
+        <v>588301</v>
       </c>
       <c r="L67" s="13">
-        <v>514823</v>
+        <v>567555</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="78" customHeight="1" x14ac:dyDescent="0.25">
